--- a/medicine/Pharmacie/Organon_BioSciences/Organon_BioSciences.xlsx
+++ b/medicine/Pharmacie/Organon_BioSciences/Organon_BioSciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Organon est une industrie pharmaceutique multinationale d'origine néerlandaise, fondée à Oss en 1923. Organon a été la première usine d'insuline et est actuellement plus connu pour le développement de la pilule contraceptive. Organon, intégré il y a quelques années à AkzoNobel, a été mis en vente en mars 2007 et, avec l'accord de la FDP, est intégré à Schering-Plough le 19 novembre 2007.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le suffixe on est souvent donné à des médicaments et le nom Organon veut dire : médicament venant d'organes.
 En 1887, Saal van Zwanenberg, membre d'une famille de commerçants en bétail et viande venant de Geffen (Brabant-Septentrional), fonde dans le village voisin d'Oss les Zwanenberg Slachterijen en Fabrieken (Zwanenberg abattoirs et usines). Van Zwanenberg voulait faire un usage utile des déchets de l'abattoir.
@@ -553,7 +567,9 @@
           <t>Produits d'Organon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de la production d'insuline, Organon gagnait après la Deuxième Guerre mondiale de la renommée avec Lyndiol (1962), une des premières pilules contraceptives au monde. La production dans le Brabant-Septentrional très catholique n'allait pas de soi. Les employés ont tellement protesté qu'il fallait confier l'emballage à un sous-traitant ailleurs. Ensuite venaient entre autres les inventions du stérilet, (1974), le contraceptif hypodermique  Implanon (1998), l'anneau contraceptif Nuvaring (2003) et l'antidépresseur Remeron.
 La liste totale des produits médicaux d'Organon à la date de fin août 2007 est: 
@@ -585,7 +601,9 @@
           <t>Les implantations aux Pays-Bas</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aux Pays-Bas: 
 Oss (plusieurs, y compris une partie du siège principal)
@@ -619,7 +637,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Organon (multinational) » (voir la liste des auteurs).</t>
         </is>
